--- a/biology/Zoologie/Calamobius/Calamobius.xlsx
+++ b/biology/Zoologie/Calamobius/Calamobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamobius est un genre de coléoptères appartenant à la famille des cérambycidés. Ce genre ne comprend en Europe qu'une seule espèce, présente aussi en France[1],[2]:
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamobius est un genre de coléoptères appartenant à la famille des cérambycidés. Ce genre ne comprend en Europe qu'une seule espèce, présente aussi en France,:
 Calamobius filum (Rossi, 1790), communément appelé l’aiguillonner des céréales ou saperde grêle.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son corps est cylindrique, très étroit, entièrement de couleur noire peu brillante et recouvert d'une pubescence grise peu dense, quelquefois plus épaisse le long de la suture élytrale.
 Les antennes sont deux fois plus longues que le corps chez le mâle et une fois et demi chez la femelle.
@@ -544,7 +558,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’attaque aux céréales (BT, BD, triticale on en a trouvé sur des graminées fourragères : fétuque élevée, dactyle ainsi que sur folle avoine).
 </t>
